--- a/testData/WritingData.xlsx
+++ b/testData/WritingData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="66">
   <si>
     <t>Course Name</t>
   </si>

--- a/testData/WritingData.xlsx
+++ b/testData/WritingData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="95">
   <si>
     <t>Course Name</t>
   </si>
@@ -235,6 +235,93 @@
   </si>
   <si>
     <t>Mixed (148)</t>
+  </si>
+  <si>
+    <t>English (1,645)</t>
+  </si>
+  <si>
+    <t>Spanish (1,100)</t>
+  </si>
+  <si>
+    <t>Arabic (1,011)</t>
+  </si>
+  <si>
+    <t>French (996)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (992)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (987)</t>
+  </si>
+  <si>
+    <t>German (976)</t>
+  </si>
+  <si>
+    <t>Indonesian (975)</t>
+  </si>
+  <si>
+    <t>Hindi (971)</t>
+  </si>
+  <si>
+    <t>Italian (970)</t>
+  </si>
+  <si>
+    <t>Swedish (969)</t>
+  </si>
+  <si>
+    <t>Dutch (968)</t>
+  </si>
+  <si>
+    <t>Greek (968)</t>
+  </si>
+  <si>
+    <t>Polish (968)</t>
+  </si>
+  <si>
+    <t>Thai (968)</t>
+  </si>
+  <si>
+    <t>Turkish (968)</t>
+  </si>
+  <si>
+    <t>Ukrainian (968)</t>
+  </si>
+  <si>
+    <t>Russian (945)</t>
+  </si>
+  <si>
+    <t>Hungarian (697)</t>
+  </si>
+  <si>
+    <t>Japanese (90)</t>
+  </si>
+  <si>
+    <t>Korean (88)</t>
+  </si>
+  <si>
+    <t>Beginner (885)</t>
+  </si>
+  <si>
+    <t>Intermediate (779)</t>
+  </si>
+  <si>
+    <t>Machine Learning Specialization</t>
+  </si>
+  <si>
+    <t>2 months at 10 hours a week</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>English (1,644)</t>
+  </si>
+  <si>
+    <t>Beginner (884)</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -670,23 +757,23 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>63</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>39</v>
@@ -694,7 +781,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>65</v>
@@ -702,72 +789,72 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -782,12 +869,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24">

--- a/testData/WritingData.xlsx
+++ b/testData/WritingData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="107">
   <si>
     <t>Course Name</t>
   </si>
@@ -322,6 +322,90 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//div[@class="css-1psltl0"]//h1"}
+  (Session info: chrome=120.0.6099.130)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c793f162a109fbd31e9d597d2a76f45d, findElement {value=//div[@class="css-1psltl0"]//h1, using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:65521/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c793f162a109fbd31e9d597d2a76f45d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"(//div[@class="cds-119 cds-Typography-base css-h1jogs cds-121"])[8]"}
+  (Session info: chrome=120.0.6099.130)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c793f162a109fbd31e9d597d2a76f45d, findElement {value=(//div[@class="cds-119 cds-Typography-base css-h1jogs cds-121"])[8], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:65521/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c793f162a109fbd31e9d597d2a76f45d</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@id='rendered-content']/div/main/section[2]/div/div/div[2]/div/div/section/div[2]/div[1]/div[1]"}
+  (Session info: chrome=120.0.6099.130)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c793f162a109fbd31e9d597d2a76f45d, findElement {value=//*[@id='rendered-content']/div/main/section[2]/div/div/div[2]/div/div/section/div[2]/div[1]/div[1], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:65521/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c793f162a109fbd31e9d597d2a76f45d</t>
+  </si>
+  <si>
+    <t>disconnected: received Inspector.detached event
+  (failed to check if window was closed: disconnected: Unable to receive message from renderer)
+  (Session info: chrome=120.0.6099.130)
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c793f162a109fbd31e9d597d2a76f45d, findElement {value=//*[@class="cds-119 cds-Typography-base css-1xy8ceb cds-121"], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:65521/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c793f162a109fbd31e9d597d2a76f45d</t>
+  </si>
+  <si>
+    <t>no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=120.0.6099.130)
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c793f162a109fbd31e9d597d2a76f45d, findElement {value=//*[@id='rendered-content']/div/main/section[2]/div/div/div[2]/div/div/section/div[2]/div[3]/div[1], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:65521/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c793f162a109fbd31e9d597d2a76f45d</t>
+  </si>
+  <si>
+    <t>no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=120.0.6099.130)
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [c793f162a109fbd31e9d597d2a76f45d, findElement {value=//*[@id='rendered-content']/div/main/section[2]/div/div/div[2]/div/div/section/div[2]/div[1]/div[1], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:65521}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:65521/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: c793f162a109fbd31e9d597d2a76f45d</t>
+  </si>
+  <si>
+    <t>English (467)</t>
+  </si>
+  <si>
+    <t>Spanish (287)</t>
+  </si>
+  <si>
+    <t>Arabic (272)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (991)</t>
+  </si>
+  <si>
+    <t>Kazakh (892)</t>
+  </si>
+  <si>
+    <t>English (1,643)</t>
   </si>
 </sst>
 </file>
@@ -757,7 +841,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>93</v>
@@ -765,7 +849,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>88</v>
@@ -773,7 +857,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>39</v>
@@ -781,85 +865,85 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>71</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>73</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>77</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>82</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>59</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">

--- a/testData/WritingData.xlsx
+++ b/testData/WritingData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="107">
   <si>
     <t>Course Name</t>
   </si>
@@ -841,7 +841,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>93</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>88</v>

--- a/testData/WritingData.xlsx
+++ b/testData/WritingData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3950" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="126">
   <si>
     <t>Course Name</t>
   </si>
@@ -406,6 +406,63 @@
   </si>
   <si>
     <t>English (1,643)</t>
+  </si>
+  <si>
+    <t>Spanish (1,101)</t>
+  </si>
+  <si>
+    <t>Arabic (1,012)</t>
+  </si>
+  <si>
+    <t>French (997)</t>
+  </si>
+  <si>
+    <t>Chinese (China) (993)</t>
+  </si>
+  <si>
+    <t>Portuguese (Brazil) (988)</t>
+  </si>
+  <si>
+    <t>German (977)</t>
+  </si>
+  <si>
+    <t>Indonesian (976)</t>
+  </si>
+  <si>
+    <t>Hindi (972)</t>
+  </si>
+  <si>
+    <t>Italian (971)</t>
+  </si>
+  <si>
+    <t>Swedish (970)</t>
+  </si>
+  <si>
+    <t>Dutch (969)</t>
+  </si>
+  <si>
+    <t>Greek (969)</t>
+  </si>
+  <si>
+    <t>Polish (969)</t>
+  </si>
+  <si>
+    <t>Thai (969)</t>
+  </si>
+  <si>
+    <t>Turkish (969)</t>
+  </si>
+  <si>
+    <t>Ukrainian (969)</t>
+  </si>
+  <si>
+    <t>Russian (946)</t>
+  </si>
+  <si>
+    <t>Kazakh (894)</t>
+  </si>
+  <si>
+    <t>Mixed (149)</t>
   </si>
 </sst>
 </file>
@@ -841,7 +898,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>93</v>
@@ -849,7 +906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>88</v>
@@ -857,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>39</v>
@@ -865,90 +922,90 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>40</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>46</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>47</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>50</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>52</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>56</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>57</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>58</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>60</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">

--- a/testData/WritingData.xlsx
+++ b/testData/WritingData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4426" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5338" uniqueCount="145">
   <si>
     <t>Course Name</t>
   </si>
@@ -463,6 +463,83 @@
   </si>
   <si>
     <t>Mixed (149)</t>
+  </si>
+  <si>
+    <t>Spanish (288)</t>
+  </si>
+  <si>
+    <t>English (470)</t>
+  </si>
+  <si>
+    <t>Arabic (273)</t>
+  </si>
+  <si>
+    <t>Intermediate (781)</t>
+  </si>
+  <si>
+    <t>Intermediate (782)</t>
+  </si>
+  <si>
+    <t>English (1,661)</t>
+  </si>
+  <si>
+    <t>Japanese (979)</t>
+  </si>
+  <si>
+    <t>Korean (977)</t>
+  </si>
+  <si>
+    <t>Beginner (895)</t>
+  </si>
+  <si>
+    <t>Intermediate (786)</t>
+  </si>
+  <si>
+    <t>English (1,664)</t>
+  </si>
+  <si>
+    <t>Beginner (896)</t>
+  </si>
+  <si>
+    <t>Intermediate (788)</t>
+  </si>
+  <si>
+    <t>English (474)</t>
+  </si>
+  <si>
+    <t>IBM Back-End Development Professional Certificate</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Unable to find element with locator By.xpath: //*[@class="cds-119 cds-Typography-base css-1xy8ceb cds-121"]
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=120.0.6099.130)
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1fa7b293094743ee1a5930a8dc1284bc, findElement {value=//*[@id='rendered-content']/div/main/section[2]/div/div/div[2]/div/div/section/div[2]/div[3]/div[1], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62152}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:62152/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1fa7b293094743ee1a5930a8dc1284bc</t>
+  </si>
+  <si>
+    <t>no such window: target window already closed
+from unknown error: web view not found
+  (Session info: chrome=120.0.6099.130)
+Build info: version: '4.17.0', revision: 'e52b1be057*'
+System info: os.name: 'Windows 11', os.arch: 'amd64', os.version: '10.0', java.version: '17.0.9'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [1fa7b293094743ee1a5930a8dc1284bc, findElement {value=//*[@id='rendered-content']/div/main/section[2]/div/div/div[2]/div/div/section/div[2]/div[1]/div[1], using=xpath}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 120.0.6099.130, chrome: {chromedriverVersion: 120.0.6099.109 (3419140ab66..., userDataDir: C:\Windows\SystemTemp\scope...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:62152}, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: windows, proxy: Proxy(), se:cdp: ws://localhost:62152/devtoo..., se:cdpVersion: 120.0.6099.130, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 1fa7b293094743ee1a5930a8dc1284bc</t>
   </si>
 </sst>
 </file>
@@ -856,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>6</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +941,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>7</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +949,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -898,23 +975,23 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>93</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>88</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>39</v>
@@ -922,100 +999,100 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>114</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>115</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>116</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>117</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>118</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>119</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>120</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>122</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>123</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>124</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
